--- a/final_stuff/Final_Group_Review_12_8.xlsx
+++ b/final_stuff/Final_Group_Review_12_8.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t xml:space="preserve">Evaluator Name:</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sanjiv D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One great reserved in case (for those with tech issues)</t>
   </si>
   <si>
     <t xml:space="preserve">Issues/Concerns</t>
@@ -540,10 +543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -705,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,6 +1037,11 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1085,18 +1093,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>10</v>
@@ -1113,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>13</v>
@@ -1124,7 +1132,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
